--- a/results/random_queries.xlsx
+++ b/results/random_queries.xlsx
@@ -170,7 +170,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23652085542000</c:v>
+                  <c:v>11040057040000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30288191936270</c:v>
@@ -191,11 +191,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94318592"/>
-        <c:axId val="116520000"/>
+        <c:axId val="78716928"/>
+        <c:axId val="78706880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94318592"/>
+        <c:axId val="78716928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -204,7 +204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116520000"/>
+        <c:crossAx val="78706880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -212,7 +212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116520000"/>
+        <c:axId val="78706880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -223,7 +223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94318592"/>
+        <c:crossAx val="78716928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -262,16 +262,6 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -295,25 +285,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -325,7 +296,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3209597237149.6865</c:v>
+                    <c:v>262908185954.42108</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2316651061532.3716</c:v>
@@ -343,7 +314,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3209597237149.6865</c:v>
+                    <c:v>262908185954.42108</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2316651061532.3716</c:v>
@@ -379,7 +350,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23652085542000</c:v>
+                  <c:v>11040057040000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30288191936270</c:v>
@@ -400,11 +371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94319616"/>
-        <c:axId val="96760896"/>
+        <c:axId val="55590912"/>
+        <c:axId val="45768704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94319616"/>
+        <c:axId val="55590912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96760896"/>
+        <c:crossAx val="45768704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,13 +402,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96760896"/>
+        <c:axId val="45768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Number of Row accesses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.5859860344755414E-2"/>
+              <c:y val="0.24314561679790025"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -452,30 +449,38 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94319616"/>
+        <c:crossAx val="55590912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln w="15875">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -873,7 +878,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +896,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
-        <v>660066110000</v>
+        <v>10800055800000</v>
       </c>
       <c r="C2" s="1">
         <v>10849562640175</v>
@@ -902,7 +907,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
-        <v>38400090400000</v>
+        <v>9600049600000</v>
       </c>
       <c r="C3" s="1">
         <v>38459099510300</v>
@@ -913,7 +918,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>19800087300000</v>
+        <v>10800055800000</v>
       </c>
       <c r="C4" s="1">
         <v>30049591140300</v>
@@ -924,7 +929,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>39600096600000</v>
+        <v>10800055800000</v>
       </c>
       <c r="C5" s="1">
         <v>39633602860275</v>
@@ -935,7 +940,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>19800087300000</v>
+        <v>13200068200000</v>
       </c>
       <c r="C6" s="1">
         <v>32449103530300</v>
@@ -950,7 +955,7 @@
       </c>
       <c r="B7" s="1">
         <f>AVERAGE(B2:B6)</f>
-        <v>23652085542000</v>
+        <v>11040057040000</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -967,7 +972,7 @@
       </c>
       <c r="B8">
         <f>STDEV(B2:B6)</f>
-        <v>16047986185748.432</v>
+        <v>1314540929772.1055</v>
       </c>
       <c r="C8">
         <f>STDEV(C2:C6)</f>
@@ -984,7 +989,7 @@
       </c>
       <c r="B9" s="1">
         <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
-        <v>3209597237149.6865</v>
+        <v>262908185954.42108</v>
       </c>
       <c r="C9" s="1">
         <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
@@ -1012,7 +1017,7 @@
       </c>
       <c r="B20" s="1">
         <f>AVERAGE(B2:B6)</f>
-        <v>23652085542000</v>
+        <v>11040057040000</v>
       </c>
       <c r="C20" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -1029,7 +1034,7 @@
       </c>
       <c r="B21">
         <f>STDEV(B2:B6)</f>
-        <v>16047986185748.432</v>
+        <v>1314540929772.1055</v>
       </c>
       <c r="C21">
         <f>STDEV(C2:C6)</f>
@@ -1046,7 +1051,7 @@
       </c>
       <c r="B22" s="1">
         <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
-        <v>3209597237149.6865</v>
+        <v>262908185954.42108</v>
       </c>
       <c r="C22" s="1">
         <f>STDEV(C2:C6)/COUNT(C2:C6)</f>

--- a/results/random_queries.xlsx
+++ b/results/random_queries.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$42</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Adaptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Number of Row Accesses</t>
+  </si>
+  <si>
+    <t>Time Taken (s)</t>
   </si>
 </sst>
 </file>
@@ -191,11 +195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78716928"/>
-        <c:axId val="78706880"/>
+        <c:axId val="41886208"/>
+        <c:axId val="99831744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78716928"/>
+        <c:axId val="41886208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -204,7 +208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78706880"/>
+        <c:crossAx val="99831744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -212,7 +216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78706880"/>
+        <c:axId val="99831744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -223,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78716928"/>
+        <c:crossAx val="41886208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -371,11 +375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55590912"/>
-        <c:axId val="45768704"/>
+        <c:axId val="41887232"/>
+        <c:axId val="99833472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55590912"/>
+        <c:axId val="41887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45768704"/>
+        <c:crossAx val="99833472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -402,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45768704"/>
+        <c:axId val="99833472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55590912"/>
+        <c:crossAx val="41887232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -481,6 +485,191 @@
       </a:solidFill>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Taken (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$22:$D$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5126136320951207</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>96.354200738732715</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>99.207257799013888</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$22:$D$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5126136320951207</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>96.354200738732715</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>99.207257799013888</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$19:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="48433152"/>
+        <c:axId val="55799168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48433152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55799168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55799168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48433152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -546,6 +735,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -878,7 +1102,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,4 +1297,206 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0"/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>222</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>828</v>
+      </c>
+      <c r="D4" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1217</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>833</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>46.8</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>824.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(D2:D6)</f>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>STDEV(B2:B6)</f>
+        <v>7.5630681604756029</v>
+      </c>
+      <c r="C8">
+        <f>STDEV(C2:C6)</f>
+        <v>481.7710036936636</v>
+      </c>
+      <c r="D8">
+        <f>STDEV(D2:D6)</f>
+        <v>496.03628899506941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
+        <v>1.5126136320951207</v>
+      </c>
+      <c r="C9" s="1">
+        <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
+        <v>96.354200738732715</v>
+      </c>
+      <c r="D9" s="1">
+        <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
+        <v>99.207257799013888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>46.8</v>
+      </c>
+      <c r="C20" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>824.6</v>
+      </c>
+      <c r="D20" s="1">
+        <f>AVERAGE(D2:D6)</f>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f>STDEV(B2:B6)</f>
+        <v>7.5630681604756029</v>
+      </c>
+      <c r="C21">
+        <f>STDEV(C2:C6)</f>
+        <v>481.7710036936636</v>
+      </c>
+      <c r="D21">
+        <f>STDEV(D2:D6)</f>
+        <v>496.03628899506941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
+        <v>1.5126136320951207</v>
+      </c>
+      <c r="C22" s="1">
+        <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
+        <v>96.354200738732715</v>
+      </c>
+      <c r="D22" s="1">
+        <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
+        <v>99.207257799013888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/results/random_queries.xlsx
+++ b/results/random_queries.xlsx
@@ -149,7 +149,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>2316651061532.3716</c:v>
+                    <c:v>241057228366.20319</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -161,7 +161,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>2316651061532.3716</c:v>
+                    <c:v>241057228366.20319</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -174,13 +174,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11040057040000</c:v>
+                  <c:v>2400012400000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30288191936270</c:v>
+                  <c:v>2430917048145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186888319628000</c:v>
+                  <c:v>79830980040000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -195,11 +195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41886208"/>
-        <c:axId val="99831744"/>
+        <c:axId val="40857600"/>
+        <c:axId val="67564032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41886208"/>
+        <c:axId val="40857600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -208,7 +208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99831744"/>
+        <c:crossAx val="67564032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -216,7 +216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99831744"/>
+        <c:axId val="67564032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41886208"/>
+        <c:crossAx val="40857600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -300,13 +300,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>262908185954.42108</c:v>
+                    <c:v>240001239999.99994</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2316651061532.3716</c:v>
+                    <c:v>241057228366.20319</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5287153986196.7031</c:v>
+                    <c:v>6281586935252.7832</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -318,13 +318,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>262908185954.42108</c:v>
+                    <c:v>240001239999.99994</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2316651061532.3716</c:v>
+                    <c:v>241057228366.20319</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5287153986196.7031</c:v>
+                    <c:v>6281586935252.7832</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -354,13 +354,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11040057040000</c:v>
+                  <c:v>2400012400000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30288191936270</c:v>
+                  <c:v>2430917048145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186888319628000</c:v>
+                  <c:v>79830980040000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,11 +375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41887232"/>
-        <c:axId val="99833472"/>
+        <c:axId val="40858624"/>
+        <c:axId val="67565760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41887232"/>
+        <c:axId val="40858624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99833472"/>
+        <c:crossAx val="67565760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99833472"/>
+        <c:axId val="67565760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41887232"/>
+        <c:crossAx val="40858624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -508,7 +508,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -619,11 +618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48433152"/>
-        <c:axId val="55799168"/>
+        <c:axId val="40860160"/>
+        <c:axId val="107053632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48433152"/>
+        <c:axId val="40860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +631,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55799168"/>
+        <c:crossAx val="107053632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55799168"/>
+        <c:axId val="107053632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,14 +647,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48433152"/>
+        <c:crossAx val="40860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1102,7 +1100,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,57 +1118,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
-        <v>10800055800000</v>
+        <v>2400012400000</v>
       </c>
       <c r="C2" s="1">
-        <v>10849562640175</v>
+        <v>2441518170150</v>
       </c>
       <c r="D2" s="1">
-        <v>163849688320000</v>
+        <v>47441554110000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
-        <v>9600049600000</v>
+        <v>1200006200000</v>
       </c>
       <c r="C3" s="1">
-        <v>38459099510300</v>
+        <v>1217509540150</v>
       </c>
       <c r="D3" s="1">
-        <v>200459231390000</v>
+        <v>91217582980000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>10800055800000</v>
+        <v>3600018600000</v>
       </c>
       <c r="C4" s="1">
-        <v>30049591140300</v>
+        <v>3627023170175</v>
       </c>
       <c r="D4" s="1">
-        <v>156049693020000</v>
+        <v>120627118850000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>10800055800000</v>
+        <v>3600018600000</v>
       </c>
       <c r="C5" s="1">
-        <v>39633602860275</v>
+        <v>3640023430075</v>
       </c>
       <c r="D5" s="1">
-        <v>219633750000000</v>
+        <v>48640060150000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>13200068200000</v>
+        <v>1200006200000</v>
       </c>
       <c r="C6" s="1">
-        <v>32449103530300</v>
+        <v>1228510930175</v>
       </c>
       <c r="D6" s="1">
-        <v>194449235410000</v>
+        <v>91228584110000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,15 +1177,15 @@
       </c>
       <c r="B7" s="1">
         <f>AVERAGE(B2:B6)</f>
-        <v>11040057040000</v>
+        <v>2400012400000</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>30288191936270</v>
+        <v>2430917048145</v>
       </c>
       <c r="D7" s="1">
         <f>AVERAGE(D2:D6)</f>
-        <v>186888319628000</v>
+        <v>79830980040000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,15 +1194,15 @@
       </c>
       <c r="B8">
         <f>STDEV(B2:B6)</f>
-        <v>1314540929772.1055</v>
+        <v>1200006199999.9998</v>
       </c>
       <c r="C8">
         <f>STDEV(C2:C6)</f>
-        <v>11583255307661.857</v>
+        <v>1205286141831.0159</v>
       </c>
       <c r="D8">
         <f>STDEV(D2:D6)</f>
-        <v>26435769930983.516</v>
+        <v>31407934676263.914</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,15 +1211,15 @@
       </c>
       <c r="B9" s="1">
         <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
-        <v>262908185954.42108</v>
+        <v>240001239999.99994</v>
       </c>
       <c r="C9" s="1">
         <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
-        <v>2316651061532.3716</v>
+        <v>241057228366.20319</v>
       </c>
       <c r="D9" s="1">
         <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
-        <v>5287153986196.7031</v>
+        <v>6281586935252.7832</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,15 +1239,15 @@
       </c>
       <c r="B20" s="1">
         <f>AVERAGE(B2:B6)</f>
-        <v>11040057040000</v>
+        <v>2400012400000</v>
       </c>
       <c r="C20" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>30288191936270</v>
+        <v>2430917048145</v>
       </c>
       <c r="D20" s="1">
         <f>AVERAGE(D2:D6)</f>
-        <v>186888319628000</v>
+        <v>79830980040000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1258,15 +1256,15 @@
       </c>
       <c r="B21">
         <f>STDEV(B2:B6)</f>
-        <v>1314540929772.1055</v>
+        <v>1200006199999.9998</v>
       </c>
       <c r="C21">
         <f>STDEV(C2:C6)</f>
-        <v>11583255307661.857</v>
+        <v>1205286141831.0159</v>
       </c>
       <c r="D21">
         <f>STDEV(D2:D6)</f>
-        <v>26435769930983.516</v>
+        <v>31407934676263.914</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,15 +1273,15 @@
       </c>
       <c r="B22" s="1">
         <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
-        <v>262908185954.42108</v>
+        <v>240001239999.99994</v>
       </c>
       <c r="C22" s="1">
         <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
-        <v>2316651061532.3716</v>
+        <v>241057228366.20319</v>
       </c>
       <c r="D22" s="1">
         <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
-        <v>5287153986196.7031</v>
+        <v>6281586935252.7832</v>
       </c>
     </row>
   </sheetData>

--- a/results/random_queries.xlsx
+++ b/results/random_queries.xlsx
@@ -264,6 +264,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Row Accesses for Application Joins</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -710,8 +725,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790573</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>

--- a/results/random_queries.xlsx
+++ b/results/random_queries.xlsx
@@ -195,11 +195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40857600"/>
-        <c:axId val="67564032"/>
+        <c:axId val="41050624"/>
+        <c:axId val="64943168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40857600"/>
+        <c:axId val="41050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -208,7 +208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67564032"/>
+        <c:crossAx val="64943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -216,7 +216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67564032"/>
+        <c:axId val="64943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40857600"/>
+        <c:crossAx val="41050624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -390,11 +390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40858624"/>
-        <c:axId val="67565760"/>
+        <c:axId val="41051648"/>
+        <c:axId val="64944896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40858624"/>
+        <c:axId val="41051648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67565760"/>
+        <c:crossAx val="64944896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67565760"/>
+        <c:axId val="64944896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40858624"/>
+        <c:crossAx val="41051648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,11 +633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40860160"/>
-        <c:axId val="107053632"/>
+        <c:axId val="41053696"/>
+        <c:axId val="36734080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40860160"/>
+        <c:axId val="41053696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107053632"/>
+        <c:crossAx val="36734080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107053632"/>
+        <c:axId val="36734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +668,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40860160"/>
+        <c:crossAx val="41053696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
